--- a/INVENTARIOS DEPOSITO/14-07-2022/hafiz 14-7-2022.xlsx
+++ b/INVENTARIOS DEPOSITO/14-07-2022/hafiz 14-7-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chadi Salloum\Desktop\INVENTARIOS\INVENTARIOS DEPOSITO\14-07-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6456A9BD-A0AD-4DF6-8628-1333125852FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52E2517-C5BD-42A1-B64E-0BA66387960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01C5DFA6-BEDB-42C2-A2A2-FBE46F49ED7C}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="V300" sqref="V300:V302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INVENTARIOS DEPOSITO/14-07-2022/hafiz 14-7-2022.xlsx
+++ b/INVENTARIOS DEPOSITO/14-07-2022/hafiz 14-7-2022.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chadi Salloum\Desktop\INVENTARIOS\INVENTARIOS DEPOSITO\14-07-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABDALLA\Desktop\INVENTARIOS\INVENTARIOS DEPOSITO\14-07-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52E2517-C5BD-42A1-B64E-0BA66387960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594432F0-E98C-4A23-9821-E84D201F2D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01C5DFA6-BEDB-42C2-A2A2-FBE46F49ED7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{01C5DFA6-BEDB-42C2-A2A2-FBE46F49ED7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -448,16 +448,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,7 +475,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -772,11 +773,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F0EFFB-0A17-4E8A-B51B-5618A677B98D}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V300" sqref="V300:V302"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
@@ -1517,7 +1518,7 @@
       <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C13" t="s">
@@ -1961,7 +1962,7 @@
         <v>66</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -4289,5 +4290,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>